--- a/public/file_nilai/68773610nilai_kelas1_import.xlsx
+++ b/public/file_nilai/68773610nilai_kelas1_import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alirena\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\pbpm\public\file_nilai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CEE1DA-B08B-4D8D-B72F-89CF29C1CE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF80951-558D-41B2-AB92-779695DDDFAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-114" yWindow="-114" windowWidth="27602" windowHeight="14927" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -1227,29 +1227,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L64" sqref="L64"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.25" customWidth="1"/>
-    <col min="7" max="7" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="2.875" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="2.85546875" customWidth="1"/>
     <col min="14" max="24" width="9" customWidth="1"/>
-    <col min="25" max="28" width="9.125" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="8.625" hidden="1" customWidth="1"/>
-    <col min="30" max="34" width="9.125" hidden="1" customWidth="1"/>
+    <col min="25" max="28" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="8.5703125" hidden="1" customWidth="1"/>
+    <col min="30" max="34" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -3741,23 +3741,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="9.125" customWidth="1"/>
-    <col min="8" max="8" width="2.875" customWidth="1"/>
-    <col min="9" max="9" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.125" customWidth="1"/>
-    <col min="11" max="11" width="2.25" customWidth="1"/>
-    <col min="12" max="13" width="9.125" customWidth="1"/>
-    <col min="14" max="14" width="2.25" customWidth="1"/>
-    <col min="15" max="15" width="15.625" customWidth="1"/>
-    <col min="16" max="16" width="9.125" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="2.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="2.28515625" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="2.28515625" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">

--- a/public/file_nilai/68773610nilai_kelas1_import.xlsx
+++ b/public/file_nilai/68773610nilai_kelas1_import.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\pbpm\public\file_nilai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF80951-558D-41B2-AB92-779695DDDFAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4803DF-923C-4228-A612-1FFFF9B527C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-114" yWindow="-114" windowWidth="27602" windowHeight="14927" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27260" yWindow="-114" windowWidth="27603" windowHeight="14927" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="164">
   <si>
     <t>Apriana Patrisia</t>
   </si>
@@ -81,9 +81,6 @@
     <t>indikator_kompetensi</t>
   </si>
   <si>
-    <t>deskripsi</t>
-  </si>
-  <si>
     <t>nilai_start</t>
   </si>
   <si>
@@ -523,6 +520,12 @@
   </si>
   <si>
     <t>WINEFA APRIA</t>
+  </si>
+  <si>
+    <t>Menggunakan benda-benda di sekitar kelas</t>
+  </si>
+  <si>
+    <t>Bilangan 20 s.d. 30</t>
   </si>
 </sst>
 </file>
@@ -1227,8 +1230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView showGridLines="0" showRuler="0" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1254,40 +1257,40 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="M1" s="3"/>
     </row>
@@ -1298,11 +1301,11 @@
       <c r="B2">
         <v>2022</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
+      <c r="C2" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1320,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K2">
         <v>437</v>
@@ -1336,11 +1339,11 @@
       <c r="B3">
         <v>2022</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
+      <c r="C3" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1358,7 +1361,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K3">
         <v>438</v>
@@ -1374,11 +1377,11 @@
       <c r="B4">
         <v>2022</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
+      <c r="C4" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1396,7 +1399,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K4">
         <v>439</v>
@@ -1412,11 +1415,11 @@
       <c r="B5">
         <v>2022</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
+      <c r="C5" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1434,7 +1437,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K5">
         <v>440</v>
@@ -1454,11 +1457,11 @@
       <c r="B6">
         <v>2022</v>
       </c>
-      <c r="C6" t="s">
-        <v>14</v>
+      <c r="C6" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1476,7 +1479,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K6">
         <v>441</v>
@@ -1492,11 +1495,11 @@
       <c r="B7">
         <v>2022</v>
       </c>
-      <c r="C7" t="s">
-        <v>14</v>
+      <c r="C7" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1514,7 +1517,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K7">
         <v>442</v>
@@ -1530,11 +1533,11 @@
       <c r="B8">
         <v>2022</v>
       </c>
-      <c r="C8" t="s">
-        <v>14</v>
+      <c r="C8" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1552,7 +1555,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K8">
         <v>443</v>
@@ -1568,11 +1571,11 @@
       <c r="B9">
         <v>2022</v>
       </c>
-      <c r="C9" t="s">
-        <v>14</v>
+      <c r="C9" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1590,7 +1593,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K9">
         <v>444</v>
@@ -1606,11 +1609,11 @@
       <c r="B10">
         <v>2022</v>
       </c>
-      <c r="C10" t="s">
-        <v>14</v>
+      <c r="C10" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1628,7 +1631,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K10">
         <v>445</v>
@@ -1644,11 +1647,11 @@
       <c r="B11">
         <v>2022</v>
       </c>
-      <c r="C11" t="s">
-        <v>14</v>
+      <c r="C11" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1666,7 +1669,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K11">
         <v>446</v>
@@ -1682,11 +1685,11 @@
       <c r="B12">
         <v>2022</v>
       </c>
-      <c r="C12" t="s">
-        <v>14</v>
+      <c r="C12" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1704,7 +1707,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K12">
         <v>447</v>
@@ -1720,11 +1723,11 @@
       <c r="B13">
         <v>2022</v>
       </c>
-      <c r="C13" t="s">
-        <v>14</v>
+      <c r="C13" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1742,7 +1745,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K13">
         <v>448</v>
@@ -1758,11 +1761,11 @@
       <c r="B14">
         <v>2022</v>
       </c>
-      <c r="C14" t="s">
-        <v>14</v>
+      <c r="C14" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1780,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K14">
         <v>449</v>
@@ -1796,11 +1799,11 @@
       <c r="B15">
         <v>2022</v>
       </c>
-      <c r="C15" t="s">
-        <v>14</v>
+      <c r="C15" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1818,7 +1821,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K15">
         <v>450</v>
@@ -1834,11 +1837,11 @@
       <c r="B16">
         <v>2022</v>
       </c>
-      <c r="C16" t="s">
-        <v>14</v>
+      <c r="C16" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1856,7 +1859,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K16">
         <v>451</v>
@@ -1872,11 +1875,11 @@
       <c r="B17">
         <v>2022</v>
       </c>
-      <c r="C17" t="s">
-        <v>14</v>
+      <c r="C17" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1894,7 +1897,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K17">
         <v>452</v>
@@ -1910,11 +1913,11 @@
       <c r="B18">
         <v>2022</v>
       </c>
-      <c r="C18" t="s">
-        <v>14</v>
+      <c r="C18" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1932,7 +1935,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K18">
         <v>453</v>
@@ -1948,11 +1951,11 @@
       <c r="B19">
         <v>2022</v>
       </c>
-      <c r="C19" t="s">
-        <v>14</v>
+      <c r="C19" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1970,7 +1973,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K19">
         <v>454</v>
@@ -1986,11 +1989,11 @@
       <c r="B20">
         <v>2022</v>
       </c>
-      <c r="C20" t="s">
-        <v>14</v>
+      <c r="C20" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -2008,7 +2011,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K20">
         <v>455</v>
@@ -2024,11 +2027,11 @@
       <c r="B21">
         <v>2022</v>
       </c>
-      <c r="C21" t="s">
-        <v>14</v>
+      <c r="C21" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2046,7 +2049,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K21">
         <v>456</v>
@@ -2062,11 +2065,11 @@
       <c r="B22">
         <v>2022</v>
       </c>
-      <c r="C22" t="s">
-        <v>14</v>
+      <c r="C22" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2084,7 +2087,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K22">
         <v>457</v>
@@ -2100,11 +2103,11 @@
       <c r="B23">
         <v>2022</v>
       </c>
-      <c r="C23" t="s">
-        <v>14</v>
+      <c r="C23" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2122,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K23">
         <v>458</v>
@@ -2138,11 +2141,11 @@
       <c r="B24">
         <v>2022</v>
       </c>
-      <c r="C24" t="s">
-        <v>14</v>
+      <c r="C24" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2160,7 +2163,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K24">
         <v>459</v>
@@ -2176,11 +2179,11 @@
       <c r="B25">
         <v>2022</v>
       </c>
-      <c r="C25" t="s">
-        <v>14</v>
+      <c r="C25" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2198,7 +2201,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K25">
         <v>460</v>
@@ -2214,11 +2217,11 @@
       <c r="B26">
         <v>2022</v>
       </c>
-      <c r="C26" t="s">
-        <v>14</v>
+      <c r="C26" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2236,7 +2239,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K26">
         <v>461</v>
@@ -2252,11 +2255,11 @@
       <c r="B27">
         <v>2022</v>
       </c>
-      <c r="C27" t="s">
-        <v>14</v>
+      <c r="C27" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2274,7 +2277,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K27">
         <v>462</v>
@@ -2290,11 +2293,11 @@
       <c r="B28">
         <v>2022</v>
       </c>
-      <c r="C28" t="s">
-        <v>14</v>
+      <c r="C28" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2312,7 +2315,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K28">
         <v>463</v>
@@ -2328,11 +2331,11 @@
       <c r="B29">
         <v>2022</v>
       </c>
-      <c r="C29" t="s">
-        <v>14</v>
+      <c r="C29" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2350,7 +2353,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K29">
         <v>464</v>
@@ -2366,11 +2369,11 @@
       <c r="B30">
         <v>2022</v>
       </c>
-      <c r="C30" t="s">
-        <v>14</v>
+      <c r="C30" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2388,7 +2391,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K30">
         <v>465</v>
@@ -2404,11 +2407,11 @@
       <c r="B31">
         <v>2022</v>
       </c>
-      <c r="C31" t="s">
-        <v>14</v>
+      <c r="C31" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2426,7 +2429,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K31">
         <v>466</v>
@@ -2442,11 +2445,11 @@
       <c r="B32">
         <v>2022</v>
       </c>
-      <c r="C32" t="s">
-        <v>14</v>
+      <c r="C32" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2464,7 +2467,7 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K32">
         <v>467</v>
@@ -2480,11 +2483,11 @@
       <c r="B33">
         <v>2022</v>
       </c>
-      <c r="C33" t="s">
-        <v>14</v>
+      <c r="C33" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2502,7 +2505,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K33">
         <v>468</v>
@@ -2518,11 +2521,11 @@
       <c r="B34">
         <v>2022</v>
       </c>
-      <c r="C34" t="s">
-        <v>14</v>
+      <c r="C34" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -2540,7 +2543,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K34">
         <v>469</v>
@@ -2556,11 +2559,11 @@
       <c r="B35">
         <v>2022</v>
       </c>
-      <c r="C35" t="s">
-        <v>14</v>
+      <c r="C35" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -2578,7 +2581,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K35">
         <v>470</v>
@@ -2594,11 +2597,11 @@
       <c r="B36">
         <v>2022</v>
       </c>
-      <c r="C36" t="s">
-        <v>14</v>
+      <c r="C36" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2616,7 +2619,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K36">
         <v>471</v>
@@ -2632,11 +2635,11 @@
       <c r="B37">
         <v>2022</v>
       </c>
-      <c r="C37" t="s">
-        <v>14</v>
+      <c r="C37" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2654,7 +2657,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K37">
         <v>472</v>
@@ -2670,11 +2673,11 @@
       <c r="B38">
         <v>2022</v>
       </c>
-      <c r="C38" t="s">
-        <v>14</v>
+      <c r="C38" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2692,7 +2695,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K38">
         <v>473</v>
@@ -2708,11 +2711,11 @@
       <c r="B39">
         <v>2022</v>
       </c>
-      <c r="C39" t="s">
-        <v>14</v>
+      <c r="C39" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2730,7 +2733,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K39">
         <v>474</v>
@@ -2746,11 +2749,11 @@
       <c r="B40">
         <v>2022</v>
       </c>
-      <c r="C40" t="s">
-        <v>14</v>
+      <c r="C40" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2768,7 +2771,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K40">
         <v>475</v>
@@ -2784,11 +2787,11 @@
       <c r="B41">
         <v>2022</v>
       </c>
-      <c r="C41" t="s">
-        <v>14</v>
+      <c r="C41" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -2806,7 +2809,7 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K41">
         <v>476</v>
@@ -2822,11 +2825,11 @@
       <c r="B42">
         <v>2022</v>
       </c>
-      <c r="C42" t="s">
-        <v>14</v>
+      <c r="C42" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -2844,7 +2847,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K42">
         <v>477</v>
@@ -2860,11 +2863,11 @@
       <c r="B43">
         <v>2022</v>
       </c>
-      <c r="C43" t="s">
-        <v>14</v>
+      <c r="C43" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -2882,7 +2885,7 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K43">
         <v>478</v>
@@ -2898,11 +2901,11 @@
       <c r="B44">
         <v>2022</v>
       </c>
-      <c r="C44" t="s">
-        <v>14</v>
+      <c r="C44" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -2920,7 +2923,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K44">
         <v>479</v>
@@ -2936,11 +2939,11 @@
       <c r="B45">
         <v>2022</v>
       </c>
-      <c r="C45" t="s">
-        <v>14</v>
+      <c r="C45" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -2958,7 +2961,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K45">
         <v>480</v>
@@ -2974,11 +2977,11 @@
       <c r="B46">
         <v>2022</v>
       </c>
-      <c r="C46" t="s">
-        <v>14</v>
+      <c r="C46" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -2996,7 +2999,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K46">
         <v>481</v>
@@ -3012,11 +3015,11 @@
       <c r="B47">
         <v>2022</v>
       </c>
-      <c r="C47" t="s">
-        <v>14</v>
+      <c r="C47" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -3034,7 +3037,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K47">
         <v>482</v>
@@ -3050,11 +3053,11 @@
       <c r="B48">
         <v>2022</v>
       </c>
-      <c r="C48" t="s">
-        <v>14</v>
+      <c r="C48" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -3072,7 +3075,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K48">
         <v>483</v>
@@ -3088,11 +3091,11 @@
       <c r="B49">
         <v>2022</v>
       </c>
-      <c r="C49" t="s">
-        <v>14</v>
+      <c r="C49" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -3110,7 +3113,7 @@
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K49">
         <v>484</v>
@@ -3126,11 +3129,11 @@
       <c r="B50">
         <v>2022</v>
       </c>
-      <c r="C50" t="s">
-        <v>14</v>
+      <c r="C50" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -3148,7 +3151,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K50">
         <v>485</v>
@@ -3164,11 +3167,11 @@
       <c r="B51">
         <v>2022</v>
       </c>
-      <c r="C51" t="s">
-        <v>14</v>
+      <c r="C51" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -3186,7 +3189,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K51">
         <v>486</v>
@@ -3202,11 +3205,11 @@
       <c r="B52">
         <v>2022</v>
       </c>
-      <c r="C52" t="s">
-        <v>14</v>
+      <c r="C52" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -3224,7 +3227,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K52">
         <v>487</v>
@@ -3240,11 +3243,11 @@
       <c r="B53">
         <v>2022</v>
       </c>
-      <c r="C53" t="s">
-        <v>14</v>
+      <c r="C53" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3262,7 +3265,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K53">
         <v>488</v>
@@ -3278,11 +3281,11 @@
       <c r="B54">
         <v>2022</v>
       </c>
-      <c r="C54" t="s">
-        <v>14</v>
+      <c r="C54" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -3300,7 +3303,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K54">
         <v>489</v>
@@ -3316,11 +3319,11 @@
       <c r="B55">
         <v>2022</v>
       </c>
-      <c r="C55" t="s">
-        <v>14</v>
+      <c r="C55" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -3338,7 +3341,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K55">
         <v>490</v>
@@ -3354,11 +3357,11 @@
       <c r="B56">
         <v>2022</v>
       </c>
-      <c r="C56" t="s">
-        <v>14</v>
+      <c r="C56" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -3376,7 +3379,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K56">
         <v>491</v>
@@ -3392,11 +3395,11 @@
       <c r="B57">
         <v>2022</v>
       </c>
-      <c r="C57" t="s">
-        <v>14</v>
+      <c r="C57" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -3414,7 +3417,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K57">
         <v>492</v>
@@ -3430,11 +3433,11 @@
       <c r="B58">
         <v>2022</v>
       </c>
-      <c r="C58" t="s">
-        <v>14</v>
+      <c r="C58" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -3452,7 +3455,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K58">
         <v>493</v>
@@ -3468,11 +3471,11 @@
       <c r="B59">
         <v>2022</v>
       </c>
-      <c r="C59" t="s">
-        <v>14</v>
+      <c r="C59" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -3490,7 +3493,7 @@
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K59">
         <v>494</v>
@@ -3506,11 +3509,11 @@
       <c r="B60">
         <v>2022</v>
       </c>
-      <c r="C60" t="s">
-        <v>14</v>
+      <c r="C60" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -3528,7 +3531,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K60">
         <v>495</v>
@@ -3544,11 +3547,11 @@
       <c r="B61">
         <v>2022</v>
       </c>
-      <c r="C61" t="s">
-        <v>14</v>
+      <c r="C61" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -3566,7 +3569,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K61">
         <v>496</v>
@@ -3582,11 +3585,11 @@
       <c r="B62">
         <v>2022</v>
       </c>
-      <c r="C62" t="s">
-        <v>14</v>
+      <c r="C62" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -3604,7 +3607,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K62">
         <v>497</v>
@@ -3620,11 +3623,11 @@
       <c r="B63">
         <v>2022</v>
       </c>
-      <c r="C63" t="s">
-        <v>14</v>
+      <c r="C63" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -3642,7 +3645,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K63">
         <v>498</v>
@@ -3658,11 +3661,11 @@
       <c r="B64">
         <v>2022</v>
       </c>
-      <c r="C64" t="s">
-        <v>14</v>
+      <c r="C64" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -3680,7 +3683,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K64">
         <v>499</v>
@@ -3696,11 +3699,11 @@
       <c r="B65">
         <v>2022</v>
       </c>
-      <c r="C65" t="s">
-        <v>14</v>
+      <c r="C65" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -3718,7 +3721,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K65">
         <v>500</v>
@@ -3741,8 +3744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -3762,34 +3765,34 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="L1" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -3800,25 +3803,25 @@
         <v>51</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2" s="2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M2">
         <v>1</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -3826,31 +3829,31 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3">
         <v>52</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="2">
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J3">
         <v>2</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M3">
         <v>2</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P3">
         <v>2</v>
@@ -3858,25 +3861,25 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4">
         <v>53</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M4">
         <v>3</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P4">
         <v>3</v>
@@ -3884,25 +3887,25 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5">
         <v>54</v>
       </c>
       <c r="I5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J5">
         <v>4</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M5">
         <v>4</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P5">
         <v>4</v>
@@ -3916,25 +3919,25 @@
         <v>55</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J6">
         <v>5</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M6">
         <v>5</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P6">
         <v>5</v>
@@ -3948,25 +3951,25 @@
         <v>56</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J7">
         <v>6</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M7">
         <v>6</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P7">
         <v>6</v>
@@ -3980,19 +3983,19 @@
         <v>57</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G8">
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J8">
         <v>7</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P8">
         <v>7</v>
@@ -4000,25 +4003,25 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>58</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9">
         <v>3</v>
       </c>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J9">
         <v>8</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P9">
         <v>8</v>
@@ -4032,19 +4035,19 @@
         <v>59</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G10">
         <v>4</v>
       </c>
       <c r="I10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J10">
         <v>9</v>
       </c>
       <c r="O10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P10">
         <v>9</v>
@@ -4058,19 +4061,19 @@
         <v>60</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G11">
         <v>5</v>
       </c>
       <c r="I11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J11">
         <v>10</v>
       </c>
       <c r="O11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P11">
         <v>10</v>
@@ -4078,19 +4081,19 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B12">
         <v>61</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G12">
         <v>6</v>
       </c>
       <c r="O12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P12">
         <v>11</v>
@@ -4098,19 +4101,19 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B13">
         <v>62</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G13">
         <v>7</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P13">
         <v>12</v>
@@ -4118,19 +4121,19 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B14">
         <v>63</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G14">
         <v>8</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P14">
         <v>13</v>
@@ -4138,19 +4141,19 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B15">
         <v>64</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G15">
         <v>9</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P15">
         <v>14</v>
@@ -4158,19 +4161,19 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16">
         <v>65</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G16">
         <v>10</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P16">
         <v>15</v>
@@ -4184,13 +4187,13 @@
         <v>66</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>11</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P17">
         <v>16</v>
@@ -4198,19 +4201,19 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B18">
         <v>67</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G18">
         <v>12</v>
       </c>
       <c r="O18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P18">
         <v>17</v>
@@ -4224,7 +4227,7 @@
         <v>68</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G19">
         <v>13</v>
@@ -4240,7 +4243,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B21">
         <v>70</v>
@@ -4248,7 +4251,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B22">
         <v>71</v>
@@ -4288,7 +4291,7 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B27">
         <v>76</v>
@@ -4296,7 +4299,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B28">
         <v>77</v>
@@ -4304,7 +4307,7 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B29">
         <v>78</v>
@@ -4312,7 +4315,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B30">
         <v>79</v>
@@ -4320,7 +4323,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B31">
         <v>80</v>
@@ -4328,7 +4331,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B32">
         <v>81</v>
@@ -4336,7 +4339,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B33">
         <v>82</v>
